--- a/Progresos/Calculo-maxima ganancia y perdida.xlsx
+++ b/Progresos/Calculo-maxima ganancia y perdida.xlsx
@@ -298,6 +298,8 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -310,8 +312,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -668,12 +668,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -849,8 +849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1029,38 +1029,38 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18" t="s">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="14" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="18">
+      <c r="B26" s="14">
         <v>1</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="18">
+      <c r="B27" s="14">
         <v>5</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="14">
         <v>0.5</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="15" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1096,15 +1096,15 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1139,15 +1139,15 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">

--- a/Progresos/Calculo-maxima ganancia y perdida.xlsx
+++ b/Progresos/Calculo-maxima ganancia y perdida.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="14115" windowHeight="4695" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="14115" windowHeight="4695" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Calculadora" sheetId="3" r:id="rId1"/>
-    <sheet name="Varios 1" sheetId="1" r:id="rId2"/>
-    <sheet name="Varios 2" sheetId="2" r:id="rId3"/>
+    <sheet name="Calculadora (2)" sheetId="4" r:id="rId2"/>
+    <sheet name="Varios 1" sheetId="1" r:id="rId3"/>
+    <sheet name="Varios 2" sheetId="2" r:id="rId4"/>
+    <sheet name="CalculadoraFuturos" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="119">
   <si>
     <t>Contratos</t>
   </si>
@@ -187,6 +189,192 @@
   </si>
   <si>
     <t xml:space="preserve">Solo para la apertura. Para el cierre de un trade, se pagan los mismos montos. </t>
+  </si>
+  <si>
+    <t>No recomendado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hacer otro considerando la prima como STOP LOSS. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y ese tema de 3 a 1 sólo sería con el tema de los boxes. Y poner, o que topee el precio ó el 3% del capital, en precio de contrato. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esa parte lo que no entiendo bien. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Necesariamente tiene que ser un OR. La activación. </t>
+  </si>
+  <si>
+    <t>Cerrar contrato si: OR precio contrato es mayor o igual a 1.26$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OR Cerrar contrato si precio subyacente es mayor o igual a tal precio que está </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dado por gerenciamiento de boxes. Pongámosle precio del Subyacente. </t>
+  </si>
+  <si>
+    <t>Take Profit</t>
+  </si>
+  <si>
+    <t>Stop loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como la prima es nuestro stop loss tácito o por defecto, no es necesario poner </t>
+  </si>
+  <si>
+    <t xml:space="preserve">otra condición con respecto al valor del contrato. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La única condición que pondríamos es si el precio del subyacente </t>
+  </si>
+  <si>
+    <t xml:space="preserve">es menor a un precio que fijamos de antemano como los boxes. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esto puede causar que, se pierda menos que el valor total de la prima. </t>
+  </si>
+  <si>
+    <t>P. Contrato</t>
+  </si>
+  <si>
+    <t>% de Ganancia Max. por Operación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% de Pérdida Máx.  por Operación </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El B/R de 3:1 es Así: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El valor de la diferencia entre el Take Profit y el precio de ejercicio(strike) sobre el valor de la diferencia entre el stop loss y el precio de ejercicio. </t>
+  </si>
+  <si>
+    <t>ó</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El precio de contrato de cierre/el precio de contrato de apertura. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sería hasta 30 puntos. </t>
+  </si>
+  <si>
+    <t>Sería de 90 puntos</t>
+  </si>
+  <si>
+    <t>Mejor caso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creo que primero comenzaré con un 2:1 de beneficio. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ver esto porque con la comisión es menos. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ver esto bien porque con la comisión es menos. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ver cuántos tics se puede mover en un día, o en una semana. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ver los históricos. </t>
+  </si>
+  <si>
+    <t>Anotar el monto de Garantía.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ver nuevamente el vídeo de futuros ultimo de Juan. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hasta el momento, mi estrategia será: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marco 15 min, y 60 min. Para intradía. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esperar que aparezca cian en Navegador en 60 min, luego otro cian en 15 min. En la mima dirección.. </t>
+  </si>
+  <si>
+    <t>Ej. Si está color cian y la tendencia está bajista en 60 min, esperar que la tendencia esté bajista en 15 min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y cian en el Navegador y entrar en sell. </t>
+  </si>
+  <si>
+    <t>Comisión</t>
+  </si>
+  <si>
+    <t>Ver vídeo de resumen 5 min del viernes</t>
+  </si>
+  <si>
+    <t>ACTIVO:</t>
+  </si>
+  <si>
+    <t>M2KU20</t>
+  </si>
+  <si>
+    <t>Este domingo capaz que habra una sola operación para ver el costo de las comisiones real.</t>
+  </si>
+  <si>
+    <t>Valor Tick</t>
+  </si>
+  <si>
+    <t>5USD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tick mínimo: </t>
+  </si>
+  <si>
+    <t>0.1 del índice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creo que máximo hasta las 12 podré operar ese, del mediodía. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lo que más destaqué es que en las Velas Renko de RUT apareció un Long primero. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y después, las 12:49 hs apareció una flecha en la misma dirección en las velas renko y </t>
+  </si>
+  <si>
+    <t>60 min de M2KU20 simultáneamente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vídeo de resumen 5 min del Jueves. </t>
+  </si>
+  <si>
+    <t>En los 3 marcos de tiempo y en el grafico de drone: Daily, 60 min, 15 min y Kase 15,1</t>
+  </si>
+  <si>
+    <t>A las 10:44 aparece una flechita de Limit hacia arriba. Simultáneamente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aparentemente esa flecha lo que hay que esperar. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">He visto que Chris Chris también había sido opera futuros. Voy a tratar de seguirle siempre, en sus vídeos. </t>
+  </si>
+  <si>
+    <t>Por lo menos la parte de M2KU20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ver todo lo que dice, pero mirar en Investing.com, para que después, yo también ya pueda volar solo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si es que ya me actualizaron los montos. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voy a tratar también de anotar cuál fue el máximo del día, el mínimo del día. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O ver de a 1 mes, cuánto se movió aprox. En el mes. O cuánto fue el movimiento diario aproximado. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tratar de sacar todos estos datos de Investing, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">En real creo. </t>
   </si>
 </sst>
 </file>
@@ -283,7 +471,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -300,6 +488,10 @@
     <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -656,10 +848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,15 +859,15 @@
     <col min="1" max="1" width="35.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>40</v>
       </c>
@@ -687,13 +879,13 @@
       </c>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>41</v>
       </c>
@@ -706,13 +898,13 @@
       </c>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>43</v>
       </c>
@@ -725,32 +917,35 @@
       </c>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="8">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C8" s="12">
         <f>C2*B8</f>
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>39</v>
       </c>
@@ -759,82 +954,140 @@
         <v>0.42</v>
       </c>
       <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G10" s="16">
+        <f>C10*3</f>
+        <v>1.26</v>
+      </c>
+      <c r="I10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B14" s="13">
         <f>C14/C2</f>
-        <v>0.105</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="C14" s="12">
         <f>C12*100*C10</f>
-        <v>210</v>
+        <v>42</v>
       </c>
       <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G14" s="16">
+        <f>C14*3</f>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="9">
         <f>(C10*C12*100+C4)/(C12*100)</f>
-        <v>0.54</v>
+        <v>1.02</v>
       </c>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="10">
         <f>(C10*C12*100-C6)/(C12*100)</f>
-        <v>0.38</v>
+        <v>0.22</v>
       </c>
       <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
+      <c r="I19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="I21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>59</v>
+      </c>
+      <c r="I22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -847,9 +1100,297 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11">
+        <v>2000</v>
+      </c>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="C4" s="12">
+        <f>C2*B4</f>
+        <v>240</v>
+      </c>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="8">
+        <v>0.04</v>
+      </c>
+      <c r="C6" s="12">
+        <f>C2*B6</f>
+        <v>80</v>
+      </c>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="C8" s="12">
+        <f>C2*B8</f>
+        <v>200</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="I9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0.42</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="G10" s="16"/>
+      <c r="I10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="I11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="7">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="I12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="I13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="13">
+        <f>C14/C2</f>
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C14" s="12">
+        <f>C12*100*C10</f>
+        <v>42</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="G14" s="16"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="13">
+        <f>C16/C2</f>
+        <v>6.3E-2</v>
+      </c>
+      <c r="C16" s="17">
+        <f>C14*3</f>
+        <v>126</v>
+      </c>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="17">
+        <f>C16/100</f>
+        <v>1.26</v>
+      </c>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="I18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="13">
+        <f>C19/C2</f>
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C19" s="18">
+        <f>C14</f>
+        <v>42</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="I19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="5"/>
+      <c r="I20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="I21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>58</v>
+      </c>
+      <c r="I23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -1070,7 +1611,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O34"/>
   <sheetViews>
@@ -1096,15 +1637,15 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1139,15 +1680,15 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1465,4 +2006,404 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.5703125" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11">
+        <v>1500</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2">
+        <v>0.4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="C4" s="12">
+        <f>C2*B4</f>
+        <v>45</v>
+      </c>
+      <c r="D4" s="19">
+        <f>C4-2*E2</f>
+        <v>44.2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="C6" s="12">
+        <f>C2*B6</f>
+        <v>15</v>
+      </c>
+      <c r="D6" s="19">
+        <f>C6+2*E2</f>
+        <v>15.8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="C8" s="12">
+        <f>C2*B8</f>
+        <v>150</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="G9" t="s">
+        <v>85</v>
+      </c>
+      <c r="M9" t="s">
+        <v>99</v>
+      </c>
+      <c r="N9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="11">
+        <v>0.42</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="G10" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="M10" t="s">
+        <v>101</v>
+      </c>
+      <c r="N10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="7">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="G12" t="s">
+        <v>87</v>
+      </c>
+      <c r="J12">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="13">
+        <f>C14/C2</f>
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="C14" s="12">
+        <f>C12*100*C10</f>
+        <v>42</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="G14" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="9">
+        <f>(C10*C12*100+C4)/(C12*100)</f>
+        <v>0.87</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="G16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="G17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="10">
+        <f>(C10*C12*100-C6)/(C12*100)</f>
+        <v>0.27</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="G18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="G19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>98</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>114</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G27" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G29" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G30" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G31" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G33" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Progresos/Calculo-maxima ganancia y perdida.xlsx
+++ b/Progresos/Calculo-maxima ganancia y perdida.xlsx
@@ -4,21 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="14115" windowHeight="4695" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="14115" windowHeight="4695"/>
   </bookViews>
   <sheets>
-    <sheet name="Calculadora" sheetId="3" r:id="rId1"/>
-    <sheet name="Calculadora (2)" sheetId="4" r:id="rId2"/>
-    <sheet name="Varios 1" sheetId="1" r:id="rId3"/>
-    <sheet name="Varios 2" sheetId="2" r:id="rId4"/>
-    <sheet name="CalculadoraFuturos" sheetId="5" r:id="rId5"/>
+    <sheet name="CalculadoraFuturos2.0-Diario" sheetId="7" r:id="rId1"/>
+    <sheet name="Calculadora" sheetId="3" r:id="rId2"/>
+    <sheet name="Calculadora (2)" sheetId="4" r:id="rId3"/>
+    <sheet name="Varios 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Varios 2" sheetId="2" r:id="rId5"/>
+    <sheet name="CalculadoraFuturos" sheetId="5" r:id="rId6"/>
+    <sheet name="CalculadoraFuturos2.0" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="139">
   <si>
     <t>Contratos</t>
   </si>
@@ -375,6 +377,66 @@
   </si>
   <si>
     <t xml:space="preserve">En real creo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precio de entrada del Futuro: </t>
+  </si>
+  <si>
+    <t>Hasta 40 puntos de Stop Loss se puede comprometer</t>
+  </si>
+  <si>
+    <t>Precio para Break Even:</t>
+  </si>
+  <si>
+    <t>Precio para Take Profit (1.5:1):</t>
+  </si>
+  <si>
+    <t>Precio para Take Profit (2:1):</t>
+  </si>
+  <si>
+    <t>Precio para Take Profit (2.5:1):</t>
+  </si>
+  <si>
+    <t>Precio para Take Profit (3:1):</t>
+  </si>
+  <si>
+    <t>Previsto</t>
+  </si>
+  <si>
+    <t>Total (Prev. + Comisiones)</t>
+  </si>
+  <si>
+    <t>Esto si se tiene poco capital en Futuros no puede cumplirse</t>
+  </si>
+  <si>
+    <t>En mi algoritmo debo contemplar el costo de la comisión inclusive para el tema del TP ó BE</t>
+  </si>
+  <si>
+    <t>Precio para Stop Loss:</t>
+  </si>
+  <si>
+    <t>ROI DE LA CUENTA</t>
+  </si>
+  <si>
+    <t>ROI INVERSION</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>NUNCA PERDER MÁS DEL 2% DE LA CUENTA EN UNA SOLA OPERACIÓN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precio de entrada del Contrato Futuro: </t>
+  </si>
+  <si>
+    <t>Por el momento, hacer 2 calculadoras, uno para BUY y otra para SELL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INGRESE EL PRECIO DE ENTRADA: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INGRESE EL PRECIO DE STOP: </t>
   </si>
 </sst>
 </file>
@@ -400,7 +462,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -443,6 +505,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -471,7 +539,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -492,6 +560,33 @@
     <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -848,6 +943,397 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11">
+        <v>2007</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3">
+        <v>0.4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="C5" s="12">
+        <f>C3*B5</f>
+        <v>60.21</v>
+      </c>
+      <c r="D5" s="19">
+        <f>C5-2*E3</f>
+        <v>59.410000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="C7" s="12">
+        <f>C3*B7</f>
+        <v>20.07</v>
+      </c>
+      <c r="D7" s="19">
+        <f>C7+2*C13*E4</f>
+        <v>21.07</v>
+      </c>
+      <c r="E7" s="22">
+        <f>C7/0.5</f>
+        <v>40.14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="C9" s="12">
+        <f>C3*B9</f>
+        <v>200.70000000000002</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="11">
+        <v>1578.3</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="F11" t="s">
+        <v>137</v>
+      </c>
+      <c r="G11" s="16"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="11">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="F13" t="s">
+        <v>138</v>
+      </c>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="21">
+        <f>D15/C3</f>
+        <v>0.31340308918784254</v>
+      </c>
+      <c r="C15" s="11">
+        <f>C13*628</f>
+        <v>628</v>
+      </c>
+      <c r="D15" s="19">
+        <f>C15+2*C13*E4</f>
+        <v>629</v>
+      </c>
+      <c r="G15" s="16"/>
+    </row>
+    <row r="16" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" s="30">
+        <f>(C17-C11-2*E4)/C15</f>
+        <v>-1.1146496815286623E-2</v>
+      </c>
+      <c r="C17" s="10">
+        <f>1572.3</f>
+        <v>1572.3</v>
+      </c>
+      <c r="D17" s="30">
+        <f>B18/C3</f>
+        <v>-3.4877927254608867E-3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="32">
+        <f>B17*C15</f>
+        <v>-6.9999999999999991</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" s="29">
+        <v>0</v>
+      </c>
+      <c r="C19" s="17">
+        <f>C11+2*E4</f>
+        <v>1579.3</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="F20" t="s">
+        <v>136</v>
+      </c>
+      <c r="G20" s="23"/>
+      <c r="J20" s="23"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="30">
+        <f>(C21-C11)/C15</f>
+        <v>1.5923566878981252E-2</v>
+      </c>
+      <c r="C21" s="17">
+        <f>2.5*C11-1.5*C17+2*E4</f>
+        <v>1588.3000000000002</v>
+      </c>
+      <c r="D21" s="30">
+        <f>B22/C3</f>
+        <v>4.9825610363728092E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="32">
+        <f>B21*C15</f>
+        <v>10.000000000000227</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" s="30">
+        <f>(C23-C11)/C15</f>
+        <v>2.0700636942674797E-2</v>
+      </c>
+      <c r="C23" s="17">
+        <f>3*C11-2*C17+2*E4</f>
+        <v>1591.2999999999997</v>
+      </c>
+      <c r="D23" s="30">
+        <f>B24/C3</f>
+        <v>6.4773293472843909E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="32">
+        <f>B23*C15</f>
+        <v>12.999999999999773</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25" s="30">
+        <f>(C25-C11)/C15</f>
+        <v>2.5477707006369789E-2</v>
+      </c>
+      <c r="C25" s="17">
+        <f>3.5*C11-2.5*C17+2*E4</f>
+        <v>1594.3000000000002</v>
+      </c>
+      <c r="D25" s="30">
+        <f>B26/C3</f>
+        <v>7.9720976581964254E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="32">
+        <f>B25*C15</f>
+        <v>16.000000000000227</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B27" s="30">
+        <f>(C27-C11)/C15</f>
+        <v>3.0254777070064055E-2</v>
+      </c>
+      <c r="C27" s="17">
+        <f>4*C11-3*C17+2*E4</f>
+        <v>1597.3000000000002</v>
+      </c>
+      <c r="D27" s="30">
+        <f>B28/C3</f>
+        <v>9.4668659691082343E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="32">
+        <f>B27*C15</f>
+        <v>19.000000000000227</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -860,12 +1346,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -1087,294 +1573,6 @@
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I31"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="6">
-        <v>1</v>
-      </c>
-      <c r="C2" s="11">
-        <v>2000</v>
-      </c>
-      <c r="D2" s="5"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="8">
-        <v>0.12</v>
-      </c>
-      <c r="C4" s="12">
-        <f>C2*B4</f>
-        <v>240</v>
-      </c>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="8">
-        <v>0.04</v>
-      </c>
-      <c r="C6" s="12">
-        <f>C2*B6</f>
-        <v>80</v>
-      </c>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="C8" s="12">
-        <f>C2*B8</f>
-        <v>200</v>
-      </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="I9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="11">
-        <v>0.42</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="G10" s="16"/>
-      <c r="I10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="I11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="7">
-        <v>1</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="I12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="I13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="13">
-        <f>C14/C2</f>
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="C14" s="12">
-        <f>C12*100*C10</f>
-        <v>42</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="G14" s="16"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="13">
-        <f>C16/C2</f>
-        <v>6.3E-2</v>
-      </c>
-      <c r="C16" s="17">
-        <f>C14*3</f>
-        <v>126</v>
-      </c>
-      <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="17">
-        <f>C16/100</f>
-        <v>1.26</v>
-      </c>
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="I18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="13">
-        <f>C19/C2</f>
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="C19" s="18">
-        <f>C14</f>
-        <v>42</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="I19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="5"/>
-      <c r="I20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="I21" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I22" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>58</v>
-      </c>
-      <c r="I23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1387,6 +1585,294 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11">
+        <v>2000</v>
+      </c>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="C4" s="12">
+        <f>C2*B4</f>
+        <v>240</v>
+      </c>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="8">
+        <v>0.04</v>
+      </c>
+      <c r="C6" s="12">
+        <f>C2*B6</f>
+        <v>80</v>
+      </c>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="C8" s="12">
+        <f>C2*B8</f>
+        <v>200</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="I9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0.42</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="G10" s="16"/>
+      <c r="I10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="I11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="7">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="I12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="I13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="13">
+        <f>C14/C2</f>
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C14" s="12">
+        <f>C12*100*C10</f>
+        <v>42</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="G14" s="16"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="13">
+        <f>C16/C2</f>
+        <v>6.3E-2</v>
+      </c>
+      <c r="C16" s="17">
+        <f>C14*3</f>
+        <v>126</v>
+      </c>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="17">
+        <f>C16/100</f>
+        <v>1.26</v>
+      </c>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="I18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="13">
+        <f>C19/C2</f>
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C19" s="18">
+        <f>C14</f>
+        <v>42</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="I19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="5"/>
+      <c r="I20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="I21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>58</v>
+      </c>
+      <c r="I23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N28"/>
   <sheetViews>
@@ -1611,7 +2097,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O34"/>
   <sheetViews>
@@ -1637,15 +2123,15 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1680,15 +2166,15 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2008,12 +2494,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2023,12 +2509,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
       <c r="E1" t="s">
         <v>94</v>
       </c>
@@ -2044,7 +2530,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="11">
-        <v>1500</v>
+        <v>5007</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2">
@@ -2075,11 +2561,11 @@
       </c>
       <c r="C4" s="12">
         <f>C2*B4</f>
-        <v>45</v>
+        <v>150.21</v>
       </c>
       <c r="D4" s="19">
         <f>C4-2*E2</f>
-        <v>44.2</v>
+        <v>149.41</v>
       </c>
       <c r="E4" t="s">
         <v>80</v>
@@ -2106,11 +2592,11 @@
       </c>
       <c r="C6" s="12">
         <f>C2*B6</f>
-        <v>15</v>
+        <v>50.07</v>
       </c>
       <c r="D6" s="19">
         <f>C6+2*E2</f>
-        <v>15.8</v>
+        <v>50.87</v>
       </c>
       <c r="E6" t="s">
         <v>79</v>
@@ -2134,7 +2620,7 @@
       </c>
       <c r="C8" s="12">
         <f>C2*B8</f>
-        <v>150</v>
+        <v>500.70000000000005</v>
       </c>
       <c r="D8" s="5"/>
     </row>
@@ -2155,7 +2641,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="11">
@@ -2206,7 +2692,7 @@
       </c>
       <c r="B14" s="13">
         <f>C14/C2</f>
-        <v>2.8000000000000001E-2</v>
+        <v>8.3882564409826239E-3</v>
       </c>
       <c r="C14" s="12">
         <f>C12*100*C10</f>
@@ -2230,7 +2716,7 @@
       <c r="B16" s="5"/>
       <c r="C16" s="9">
         <f>(C10*C12*100+C4)/(C12*100)</f>
-        <v>0.87</v>
+        <v>1.9221000000000001</v>
       </c>
       <c r="D16" s="5"/>
       <c r="G16" t="s">
@@ -2253,7 +2739,7 @@
       <c r="B18" s="5"/>
       <c r="C18" s="10">
         <f>(C10*C12*100-C6)/(C12*100)</f>
-        <v>0.27</v>
+        <v>-8.0700000000000008E-2</v>
       </c>
       <c r="D18" s="5"/>
       <c r="G18" t="s">
@@ -2397,6 +2883,389 @@
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11">
+        <v>2007</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3">
+        <v>0.4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="C5" s="12">
+        <f>C3*B5</f>
+        <v>60.21</v>
+      </c>
+      <c r="D5" s="19">
+        <f>C5-2*E3</f>
+        <v>59.410000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="C7" s="12">
+        <f>C3*B7</f>
+        <v>20.07</v>
+      </c>
+      <c r="D7" s="19">
+        <f>C7+2*C13*E4</f>
+        <v>21.07</v>
+      </c>
+      <c r="E7" s="22">
+        <f>C7/0.5</f>
+        <v>40.14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="C9" s="12">
+        <f>C3*B9</f>
+        <v>200.70000000000002</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="11">
+        <v>1578.3</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="G11" s="16"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="11">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="21">
+        <f>D15/C3</f>
+        <v>0.31340308918784254</v>
+      </c>
+      <c r="C15" s="11">
+        <f>C13*628</f>
+        <v>628</v>
+      </c>
+      <c r="D15" s="19">
+        <f>C15+2*C13*E4</f>
+        <v>629</v>
+      </c>
+      <c r="G15" s="16"/>
+    </row>
+    <row r="16" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" s="30">
+        <f>(C17-C11-2*E4)/C15</f>
+        <v>-1.1146496815286623E-2</v>
+      </c>
+      <c r="C17" s="10">
+        <f>1572.3</f>
+        <v>1572.3</v>
+      </c>
+      <c r="D17" s="30">
+        <f>B18/C3</f>
+        <v>-3.4877927254608867E-3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="32">
+        <f>B17*C15</f>
+        <v>-6.9999999999999991</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" s="29">
+        <v>0</v>
+      </c>
+      <c r="C19" s="17">
+        <f>C11+2*E4</f>
+        <v>1579.3</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="F20" t="s">
+        <v>136</v>
+      </c>
+      <c r="G20" s="23"/>
+      <c r="J20" s="23"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="30">
+        <f>(C21-C11)/C15</f>
+        <v>1.5923566878981252E-2</v>
+      </c>
+      <c r="C21" s="17">
+        <f>2.5*C11-1.5*C17+2*E4</f>
+        <v>1588.3000000000002</v>
+      </c>
+      <c r="D21" s="30">
+        <f>B22/C3</f>
+        <v>4.9825610363728092E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="32">
+        <f>B21*C15</f>
+        <v>10.000000000000227</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" s="30">
+        <f>(C23-C11)/C15</f>
+        <v>2.0700636942674797E-2</v>
+      </c>
+      <c r="C23" s="17">
+        <f>3*C11-2*C17+2*E4</f>
+        <v>1591.2999999999997</v>
+      </c>
+      <c r="D23" s="30">
+        <f>B24/C3</f>
+        <v>6.4773293472843909E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="32">
+        <f>B23*C15</f>
+        <v>12.999999999999773</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25" s="30">
+        <f>(C25-C11)/C15</f>
+        <v>2.5477707006369789E-2</v>
+      </c>
+      <c r="C25" s="17">
+        <f>3.5*C11-2.5*C17+2*E4</f>
+        <v>1594.3000000000002</v>
+      </c>
+      <c r="D25" s="30">
+        <f>B26/C3</f>
+        <v>7.9720976581964254E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="32">
+        <f>B25*C15</f>
+        <v>16.000000000000227</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B27" s="30">
+        <f>(C27-C11)/C15</f>
+        <v>3.0254777070064055E-2</v>
+      </c>
+      <c r="C27" s="17">
+        <f>4*C11-3*C17+2*E4</f>
+        <v>1597.3000000000002</v>
+      </c>
+      <c r="D27" s="30">
+        <f>B28/C3</f>
+        <v>9.4668659691082343E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="32">
+        <f>B27*C15</f>
+        <v>19.000000000000227</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
